--- a/bd/vpn_tiempo.xlsx
+++ b/bd/vpn_tiempo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dellphoto\Documents\ecopetrol_2021\ecopetrol_2021\estimaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dellphoto\Documents\ecopetrol_2021\ecopetrol_2021\Emisiones_co2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>año</t>
+    <t>FACTOR VPN</t>
   </si>
   <si>
-    <t>FACTOR VPN</t>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -365,10 +365,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/bd/vpn_tiempo.xlsx
+++ b/bd/vpn_tiempo.xlsx
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>FACTOR VPN</t>
+    <t>year</t>
   </si>
   <si>
-    <t>year</t>
+    <t>FACTOR _VPN</t>
   </si>
 </sst>
 </file>
@@ -359,16 +359,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/bd/vpn_tiempo.xlsx
+++ b/bd/vpn_tiempo.xlsx
@@ -359,11 +359,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
